--- a/Fravær.xlsx
+++ b/Fravær.xlsx
@@ -208,7 +208,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -227,11 +227,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-103384976"/>
-        <c:axId val="-103386064"/>
+        <c:axId val="-1459248240"/>
+        <c:axId val="-1459250416"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-103384976"/>
+        <c:axId val="-1459248240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -273,7 +273,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-103386064"/>
+        <c:crossAx val="-1459250416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -281,7 +281,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-103386064"/>
+        <c:axId val="-1459250416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -332,7 +332,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-103384976"/>
+        <c:crossAx val="-1459248240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -514,11 +514,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-103388240"/>
-        <c:axId val="-103386608"/>
+        <c:axId val="-1458432160"/>
+        <c:axId val="-1458431616"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-103388240"/>
+        <c:axId val="-1458432160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -560,7 +560,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-103386608"/>
+        <c:crossAx val="-1458431616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -568,7 +568,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-103386608"/>
+        <c:axId val="-1458431616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -619,7 +619,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-103388240"/>
+        <c:crossAx val="-1458432160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2109,7 +2109,7 @@
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2137,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -2170,6 +2170,9 @@
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
       </c>
       <c r="Q4">
         <f>C24-C2</f>
@@ -2205,27 +2208,27 @@
         <v>6</v>
       </c>
       <c r="B24">
-        <f>SUM(B4:B23)</f>
+        <f t="shared" ref="B24:G24" si="0">SUM(B4:B23)</f>
         <v>0</v>
       </c>
       <c r="C24">
-        <f>SUM(C4:C23)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D24">
-        <f>SUM(D4:D23)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E24">
-        <f>SUM(E4:E23)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F24">
-        <f>SUM(F4:F23)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="G24">
-        <f>SUM(G4:G23)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>

--- a/Fravær.xlsx
+++ b/Fravær.xlsx
@@ -208,7 +208,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -227,11 +227,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1459248240"/>
-        <c:axId val="-1459250416"/>
+        <c:axId val="144019248"/>
+        <c:axId val="144014896"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1459248240"/>
+        <c:axId val="144019248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -273,7 +273,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1459250416"/>
+        <c:crossAx val="144014896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -281,7 +281,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1459250416"/>
+        <c:axId val="144014896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -332,7 +332,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1459248240"/>
+        <c:crossAx val="144019248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -495,7 +495,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -514,11 +514,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1458432160"/>
-        <c:axId val="-1458431616"/>
+        <c:axId val="144015440"/>
+        <c:axId val="144017072"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1458432160"/>
+        <c:axId val="144015440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -560,7 +560,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1458431616"/>
+        <c:crossAx val="144017072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -568,7 +568,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1458431616"/>
+        <c:axId val="144017072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -619,7 +619,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1458432160"/>
+        <c:crossAx val="144015440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2109,7 +2109,7 @@
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2137,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -2180,12 +2180,18 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>1</v>
+      </c>
       <c r="Q5">
         <f>D24-D2</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>1</v>
+      </c>
       <c r="Q6">
         <f>E24-E2</f>
         <v>0</v>
@@ -2194,7 +2200,7 @@
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="Q7">
         <f>F24-F2</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -2225,7 +2231,7 @@
       </c>
       <c r="F24">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G24">
         <f t="shared" si="0"/>

--- a/Fravær.xlsx
+++ b/Fravær.xlsx
@@ -208,7 +208,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -227,11 +227,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="144019248"/>
-        <c:axId val="144014896"/>
+        <c:axId val="-1506671056"/>
+        <c:axId val="-1506672144"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="144019248"/>
+        <c:axId val="-1506671056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -273,7 +273,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="144014896"/>
+        <c:crossAx val="-1506672144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -281,7 +281,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="144014896"/>
+        <c:axId val="-1506672144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -332,7 +332,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="144019248"/>
+        <c:crossAx val="-1506671056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -514,11 +514,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="144015440"/>
-        <c:axId val="144017072"/>
+        <c:axId val="-1506658544"/>
+        <c:axId val="-1506668880"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="144015440"/>
+        <c:axId val="-1506658544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -560,7 +560,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="144017072"/>
+        <c:crossAx val="-1506668880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -568,7 +568,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="144017072"/>
+        <c:axId val="-1506668880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -619,7 +619,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="144015440"/>
+        <c:crossAx val="-1506658544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2109,7 +2109,7 @@
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2137,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -2198,6 +2198,9 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>1</v>
+      </c>
       <c r="Q7">
         <f>F24-F2</f>
         <v>1</v>
@@ -2231,7 +2234,7 @@
       </c>
       <c r="F24">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G24">
         <f t="shared" si="0"/>

--- a/Fravær.xlsx
+++ b/Fravær.xlsx
@@ -208,7 +208,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -227,11 +227,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1506671056"/>
-        <c:axId val="-1506672144"/>
+        <c:axId val="1954295696"/>
+        <c:axId val="1954283184"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1506671056"/>
+        <c:axId val="1954295696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -273,7 +273,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1506672144"/>
+        <c:crossAx val="1954283184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -281,7 +281,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1506672144"/>
+        <c:axId val="1954283184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -332,7 +332,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1506671056"/>
+        <c:crossAx val="1954295696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -495,7 +495,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -514,11 +514,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1506658544"/>
-        <c:axId val="-1506668880"/>
+        <c:axId val="1954289712"/>
+        <c:axId val="1954290256"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1506658544"/>
+        <c:axId val="1954289712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -560,7 +560,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1506668880"/>
+        <c:crossAx val="1954290256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -568,7 +568,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1506668880"/>
+        <c:axId val="1954290256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -619,7 +619,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1506658544"/>
+        <c:crossAx val="1954289712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2109,7 +2109,7 @@
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2203,10 +2203,13 @@
       </c>
       <c r="Q7">
         <f>F24-F2</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <v>1</v>
+      </c>
       <c r="Q8">
         <f>G24-G2</f>
         <v>0</v>
@@ -2234,7 +2237,7 @@
       </c>
       <c r="F24">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G24">
         <f t="shared" si="0"/>

--- a/Fravær.xlsx
+++ b/Fravær.xlsx
@@ -208,7 +208,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -227,11 +227,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1954295696"/>
-        <c:axId val="1954283184"/>
+        <c:axId val="-2139589968"/>
+        <c:axId val="-2139592144"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1954295696"/>
+        <c:axId val="-2139589968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -273,7 +273,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1954283184"/>
+        <c:crossAx val="-2139592144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -281,7 +281,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1954283184"/>
+        <c:axId val="-2139592144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -332,7 +332,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1954295696"/>
+        <c:crossAx val="-2139589968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -514,11 +514,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1954289712"/>
-        <c:axId val="1954290256"/>
+        <c:axId val="-2139588336"/>
+        <c:axId val="-2139593776"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1954289712"/>
+        <c:axId val="-2139588336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -560,7 +560,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1954290256"/>
+        <c:crossAx val="-2139593776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -568,7 +568,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1954290256"/>
+        <c:axId val="-2139593776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -619,7 +619,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1954289712"/>
+        <c:crossAx val="-2139588336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2109,7 +2109,7 @@
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2137,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -2215,6 +2215,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>6</v>
@@ -2237,7 +2242,7 @@
       </c>
       <c r="F24">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G24">
         <f t="shared" si="0"/>

--- a/Fravær.xlsx
+++ b/Fravær.xlsx
@@ -202,7 +202,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -227,11 +227,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2139589968"/>
-        <c:axId val="-2139592144"/>
+        <c:axId val="1218538960"/>
+        <c:axId val="1218535152"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2139589968"/>
+        <c:axId val="1218538960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -273,7 +273,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2139592144"/>
+        <c:crossAx val="1218535152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -281,7 +281,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2139592144"/>
+        <c:axId val="1218535152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -332,7 +332,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2139589968"/>
+        <c:crossAx val="1218538960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -514,11 +514,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2139588336"/>
-        <c:axId val="-2139593776"/>
+        <c:axId val="1218538416"/>
+        <c:axId val="1218536240"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2139588336"/>
+        <c:axId val="1218538416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -560,7 +560,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2139593776"/>
+        <c:crossAx val="1218536240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -568,7 +568,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2139593776"/>
+        <c:axId val="1218536240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -619,7 +619,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2139588336"/>
+        <c:crossAx val="1218538416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2109,7 +2109,7 @@
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -2171,6 +2171,9 @@
       <c r="A4" t="s">
         <v>7</v>
       </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
       <c r="F4">
         <v>1</v>
       </c>
@@ -2234,7 +2237,7 @@
       </c>
       <c r="D24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24">
         <f t="shared" si="0"/>

--- a/Fravær.xlsx
+++ b/Fravær.xlsx
@@ -165,7 +165,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="da-DK"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -196,7 +196,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -208,7 +208,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -227,11 +227,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1218538960"/>
-        <c:axId val="1218535152"/>
+        <c:axId val="-619084368"/>
+        <c:axId val="-619087088"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1218538960"/>
+        <c:axId val="-619084368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -270,10 +270,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1218535152"/>
+        <c:crossAx val="-619087088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -281,7 +281,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1218535152"/>
+        <c:axId val="-619087088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -329,10 +329,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1218538960"/>
+        <c:crossAx val="-619084368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -370,7 +370,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="da-DK"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -452,7 +452,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="da-DK"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -495,7 +495,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -514,11 +514,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1218538416"/>
-        <c:axId val="1218536240"/>
+        <c:axId val="-619089808"/>
+        <c:axId val="-619085456"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1218538416"/>
+        <c:axId val="-619089808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -557,10 +557,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1218536240"/>
+        <c:crossAx val="-619085456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -568,7 +568,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1218536240"/>
+        <c:axId val="-619085456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -616,10 +616,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1218538416"/>
+        <c:crossAx val="-619089808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -657,7 +657,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="da-DK"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2109,7 +2109,7 @@
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2125,7 +2125,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -2171,6 +2171,9 @@
       <c r="A4" t="s">
         <v>7</v>
       </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
       <c r="D4">
         <v>1</v>
       </c>
@@ -2183,6 +2186,9 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>1</v>
+      </c>
       <c r="F5">
         <v>1</v>
       </c>
@@ -2192,6 +2198,9 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>1</v>
+      </c>
       <c r="F6">
         <v>1</v>
       </c>
@@ -2206,7 +2215,7 @@
       </c>
       <c r="Q7">
         <f>F24-F2</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -2223,13 +2232,18 @@
         <v>1</v>
       </c>
     </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>6</v>
       </c>
       <c r="B24">
         <f t="shared" ref="B24:G24" si="0">SUM(B4:B23)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
@@ -2245,7 +2259,7 @@
       </c>
       <c r="F24">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G24">
         <f t="shared" si="0"/>
